--- a/Parte 2/dati.xlsx
+++ b/Parte 2/dati.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>p</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Non prioritario</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -384,6 +387,12 @@
       </c>
       <c r="B1">
         <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
